--- a/plataforma SPeak 2025 por semana até semana 43 (3).xlsx
+++ b/plataforma SPeak 2025 por semana até semana 43 (3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regina.pieruchi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davi.silva\AppData\Local\Packages\5319275A.WhatsAppDesktop_cv1g1gvanyjgm\LocalState\sessions\AC76DCD02D74194452A54312DB1979B0DFABA41A\transfers\2025-51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F1EC8-B053-43AA-A379-2B6AB42CBED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5AF0F3-8941-4090-BF85-0489FD2C170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A913360B-ABA4-474C-A115-2935233947B5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A913360B-ABA4-474C-A115-2935233947B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1492,11 +1492,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1869,6 +1906,24 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1877,57 +1932,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1974,22 +1978,64 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2317,8 +2363,7 @@
   <dimension ref="A1:BH32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G18" sqref="G18:G19"/>
+      <selection activeCell="E18" sqref="A14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,104 +2389,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="34"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="154" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="156"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="145"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="160" t="s">
+      <c r="S1" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="165"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="154"/>
       <c r="AB1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="132" t="s">
+      <c r="AC1" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="133"/>
-      <c r="AH1" s="133"/>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="133"/>
-      <c r="AK1" s="133"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="132" t="s">
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="139"/>
+      <c r="AJ1" s="139"/>
+      <c r="AK1" s="139"/>
+      <c r="AL1" s="140"/>
+      <c r="AM1" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" s="133"/>
-      <c r="AO1" s="133"/>
-      <c r="AP1" s="133"/>
-      <c r="AQ1" s="133"/>
-      <c r="AR1" s="133"/>
-      <c r="AS1" s="133"/>
-      <c r="AT1" s="133"/>
-      <c r="AU1" s="133"/>
-      <c r="AV1" s="133"/>
-      <c r="AW1" s="134"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="139"/>
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="140"/>
       <c r="AX1" s="57" t="s">
         <v>38</v>
       </c>
       <c r="AY1" s="58"/>
     </row>
     <row r="2" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
       <c r="E2" s="36"/>
       <c r="F2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
       <c r="Q2" s="22" t="s">
         <v>41</v>
       </c>
       <c r="R2" s="27"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="166"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="155"/>
       <c r="AB2" s="104"/>
       <c r="AC2" s="107"/>
       <c r="AD2" s="108"/>
@@ -2453,24 +2498,24 @@
       <c r="AJ2" s="108"/>
       <c r="AK2" s="108"/>
       <c r="AL2" s="109"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="136"/>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="136"/>
-      <c r="AW2" s="137"/>
+      <c r="AM2" s="158"/>
+      <c r="AN2" s="159"/>
+      <c r="AO2" s="159"/>
+      <c r="AP2" s="159"/>
+      <c r="AQ2" s="159"/>
+      <c r="AR2" s="159"/>
+      <c r="AS2" s="159"/>
+      <c r="AT2" s="159"/>
+      <c r="AU2" s="159"/>
+      <c r="AV2" s="159"/>
+      <c r="AW2" s="160"/>
       <c r="AX2" s="59"/>
     </row>
     <row r="3" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="35" t="s">
         <v>46</v>
       </c>
@@ -2610,12 +2655,12 @@
       <c r="AY3" s="1"/>
     </row>
     <row r="4" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="24" t="s">
         <v>47</v>
       </c>
@@ -2755,15 +2800,15 @@
       <c r="AY4" s="1"/>
     </row>
     <row r="5" spans="1:60" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="174"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
-      <c r="G5" s="170">
+      <c r="G5" s="135">
         <f>SUM(H5:Q5)/10</f>
         <v>0.45090000000000002</v>
       </c>
@@ -2900,15 +2945,15 @@
       </c>
     </row>
     <row r="6" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="164"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="170">
+      <c r="G6" s="135">
         <f t="shared" ref="G6:G30" si="0">SUM(H6:Q6)/10</f>
         <v>0.39890000000000009</v>
       </c>
@@ -3045,15 +3090,15 @@
       </c>
     </row>
     <row r="7" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="164"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="170">
+      <c r="G7" s="135">
         <f t="shared" si="0"/>
         <v>0.42309999999999998</v>
       </c>
@@ -3190,15 +3235,15 @@
       </c>
     </row>
     <row r="8" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="170">
+      <c r="G8" s="135">
         <f t="shared" si="0"/>
         <v>1.6212999999999997</v>
       </c>
@@ -3335,15 +3380,15 @@
       </c>
     </row>
     <row r="9" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="170">
+      <c r="G9" s="135">
         <f t="shared" si="0"/>
         <v>0.77629999999999999</v>
       </c>
@@ -3480,15 +3525,15 @@
       </c>
     </row>
     <row r="10" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="170">
+      <c r="G10" s="135">
         <f t="shared" si="0"/>
         <v>0.51639999999999997</v>
       </c>
@@ -3625,15 +3670,15 @@
       </c>
     </row>
     <row r="11" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
-      <c r="G11" s="170">
+      <c r="G11" s="135">
         <f t="shared" si="0"/>
         <v>1.0165999999999999</v>
       </c>
@@ -3770,15 +3815,15 @@
       </c>
     </row>
     <row r="12" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="168"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
-      <c r="G12" s="170">
+      <c r="G12" s="135">
         <f t="shared" si="0"/>
         <v>0.48799999999999988</v>
       </c>
@@ -3915,15 +3960,15 @@
       </c>
     </row>
     <row r="13" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
-      <c r="G13" s="170">
+      <c r="G13" s="135">
         <f t="shared" si="0"/>
         <v>0.42709999999999998</v>
       </c>
@@ -4060,15 +4105,15 @@
       </c>
     </row>
     <row r="14" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="172">
+      <c r="G14" s="137">
         <f t="shared" si="0"/>
         <v>0.20230000000000001</v>
       </c>
@@ -4206,15 +4251,15 @@
       <c r="BH14" s="2"/>
     </row>
     <row r="15" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="170">
+      <c r="G15" s="135">
         <f t="shared" si="0"/>
         <v>0.92910000000000004</v>
       </c>
@@ -4351,15 +4396,15 @@
       </c>
     </row>
     <row r="16" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="170">
+      <c r="G16" s="135">
         <f t="shared" si="0"/>
         <v>0.62540000000000007</v>
       </c>
@@ -4504,7 +4549,7 @@
       <c r="D17" s="72"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="171">
+      <c r="G17" s="136">
         <f t="shared" si="0"/>
         <v>9.8000000000000004E-2</v>
       </c>
@@ -4641,15 +4686,15 @@
       </c>
     </row>
     <row r="18" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="146" t="s">
+      <c r="A18" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="168"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="170">
+      <c r="G18" s="135">
         <f t="shared" si="0"/>
         <v>0.46329999999999999</v>
       </c>
@@ -4794,7 +4839,7 @@
       <c r="D19" s="72"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="170">
+      <c r="G19" s="135">
         <f t="shared" si="0"/>
         <v>0.58140000000000003</v>
       </c>
@@ -4931,15 +4976,15 @@
       </c>
     </row>
     <row r="20" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="171">
+      <c r="G20" s="136">
         <f t="shared" si="0"/>
         <v>0.1119</v>
       </c>
@@ -5076,15 +5121,15 @@
       </c>
     </row>
     <row r="21" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="165"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="172">
+      <c r="G21" s="137">
         <f t="shared" si="0"/>
         <v>0.34010000000000001</v>
       </c>
@@ -5229,7 +5274,7 @@
       <c r="D22" s="72"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="172">
+      <c r="G22" s="137">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
@@ -5366,15 +5411,15 @@
       </c>
     </row>
     <row r="23" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="170">
+      <c r="G23" s="135">
         <f t="shared" si="0"/>
         <v>0.48840000000000006</v>
       </c>
@@ -5511,15 +5556,15 @@
       </c>
     </row>
     <row r="24" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="175"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="172">
+      <c r="G24" s="137">
         <f t="shared" si="0"/>
         <v>0.24440000000000001</v>
       </c>
@@ -5656,15 +5701,15 @@
       </c>
     </row>
     <row r="25" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="164"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="172">
+      <c r="G25" s="137">
         <f t="shared" si="0"/>
         <v>0.29189999999999994</v>
       </c>
@@ -5677,7 +5722,7 @@
       <c r="J25" s="129">
         <v>0.109</v>
       </c>
-      <c r="K25" s="167">
+      <c r="K25" s="132">
         <v>0.31900000000000001</v>
       </c>
       <c r="L25" s="129">
@@ -5801,15 +5846,15 @@
       </c>
     </row>
     <row r="26" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="171">
+      <c r="G26" s="136">
         <f t="shared" si="0"/>
         <v>0.19139999999999996</v>
       </c>
@@ -5946,15 +5991,15 @@
       </c>
     </row>
     <row r="27" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="172">
+      <c r="G27" s="137">
         <f t="shared" si="0"/>
         <v>0.28949999999999998</v>
       </c>
@@ -6099,7 +6144,7 @@
       <c r="D28" s="72"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="172">
+      <c r="G28" s="137">
         <f t="shared" si="0"/>
         <v>0.34460000000000002</v>
       </c>
@@ -6236,15 +6281,15 @@
       </c>
     </row>
     <row r="29" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="138" t="s">
+      <c r="A29" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="165"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="170">
+      <c r="G29" s="135">
         <f t="shared" si="0"/>
         <v>0.75290000000000001</v>
       </c>
@@ -6389,7 +6434,7 @@
       <c r="D30" s="74"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="171">
+      <c r="G30" s="136">
         <f t="shared" si="0"/>
         <v>7.6899999999999996E-2</v>
       </c>
@@ -6579,19 +6624,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="J1:P2"/>
-    <mergeCell ref="S1:Z2"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A7:D7"/>
     <mergeCell ref="AM1:AW1"/>
     <mergeCell ref="AM2:AW2"/>
     <mergeCell ref="A29:D29"/>
@@ -6608,6 +6640,19 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="J1:P2"/>
+    <mergeCell ref="S1:Z2"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="AA1:AA2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
